--- a/data/获取数据/政策导向指标/非国企20年数据/603275.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/603275.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>众辰科技</t>
   </si>
   <si>
-    <t>603275</t>
-  </si>
-  <si>
     <t>2023-08-23</t>
   </si>
   <si>
@@ -200,6 +224,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>张建军</t>
+  </si>
+  <si>
+    <t>上海友辰企业管理中心(有限合伙);上海直辰企业管理中心(有限合伙);上海众挺智能科技有限公司;张建军;上海宽辰智能科技有限公司</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -557,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,16 +639,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>603275</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>62.44</v>
@@ -645,1889 +708,1918 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>603275</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3">
+        <v>9105</v>
+      </c>
+      <c r="S3">
+        <v>61.2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3">
+        <v>42.81327417627495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>603275</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>59.7</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>56.05</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>63.49</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>55.82</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>157871</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>933451757</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>11.88</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-13.19</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-8.52</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>43.32</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>603275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>53.53</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>49</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>54.6</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>48.97</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>128903</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>661073146</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>10.04</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-12.58</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-7.05</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>35.37</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>603275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>63.2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>53.81</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>63.21</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>53</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>181241</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>1057100781</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>20.84</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>9.82</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>4.81</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>49.73</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>603275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>50.79</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>54.81</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>58.86</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>49.01</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>168563</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>920099189</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>18.31</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>1.86</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>46.25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>603275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>53.2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>51.47</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>54.85</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>51.34</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>138068</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>726133908</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>6.4</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-6.09</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-3.34</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>37.88</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>603275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>51.01</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>51.23</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>52.8</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>50.52</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>80768</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>415535332</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>4.43</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-0.47</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-0.24</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>22.16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>603275</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>50.96</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>51.86</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>52.98</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>50.16</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>85280</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>440691384</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>5.5</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>1.23</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.63</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>23.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>603275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>51.49</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>51.01</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>52.29</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>50.8</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>68556</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>352600654</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>2.87</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-1.64</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-0.85</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>18.81</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>603275</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>50.5</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>50.23</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>51.34</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>50.13</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>57740</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>292389028</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>2.37</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-1.53</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-0.78</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>15.84</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>603275</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>50.31</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>52.02</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>52.06</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>49.26</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>86825</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>440725417</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>5.57</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>3.56</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>1.79</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>23.82</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>603275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>51.4</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>49.52</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>51.5</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>49.5</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>66783</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>335608543</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>3.84</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-4.81</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-2.5</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>18.32</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>603275</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>49.27</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>49.62</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>50</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>49.01</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>34096</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>169284664</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.2</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.1</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>9.35</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>603275</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>49.55</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>48.35</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>49.55</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>47.8</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>47805</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>232043804</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>3.53</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>-2.56</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>-1.27</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>13.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>48.02</v>
-      </c>
-      <c r="E16">
-        <v>47.9</v>
-      </c>
-      <c r="F16">
-        <v>48.4</v>
-      </c>
-      <c r="G16">
-        <v>47.68</v>
-      </c>
-      <c r="H16">
-        <v>29718</v>
-      </c>
-      <c r="I16">
-        <v>142561019</v>
-      </c>
-      <c r="J16">
-        <v>1.49</v>
-      </c>
-      <c r="K16">
-        <v>-0.93</v>
-      </c>
-      <c r="L16">
-        <v>-0.45</v>
-      </c>
-      <c r="M16">
-        <v>8.15</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>603275</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>47.69</v>
+        <v>48.02</v>
       </c>
       <c r="E17">
-        <v>46.74</v>
+        <v>47.9</v>
       </c>
       <c r="F17">
-        <v>47.69</v>
+        <v>48.4</v>
       </c>
       <c r="G17">
-        <v>46.38</v>
+        <v>47.68</v>
       </c>
       <c r="H17">
-        <v>39842</v>
+        <v>29718</v>
       </c>
       <c r="I17">
-        <v>187351671</v>
+        <v>142561019</v>
       </c>
       <c r="J17">
-        <v>2.73</v>
+        <v>1.49</v>
       </c>
       <c r="K17">
-        <v>-2.42</v>
+        <v>-0.93</v>
       </c>
       <c r="L17">
-        <v>-1.16</v>
+        <v>-0.45</v>
       </c>
       <c r="M17">
-        <v>10.93</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>603275</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>46.6</v>
+        <v>47.69</v>
       </c>
       <c r="E18">
-        <v>44.88</v>
+        <v>46.74</v>
       </c>
       <c r="F18">
-        <v>46.61</v>
+        <v>47.69</v>
       </c>
       <c r="G18">
-        <v>44.55</v>
+        <v>46.38</v>
       </c>
       <c r="H18">
-        <v>45433</v>
+        <v>39842</v>
       </c>
       <c r="I18">
-        <v>205946331</v>
+        <v>187351671</v>
       </c>
       <c r="J18">
-        <v>4.41</v>
+        <v>2.73</v>
       </c>
       <c r="K18">
-        <v>-3.98</v>
+        <v>-2.42</v>
       </c>
       <c r="L18">
-        <v>-1.86</v>
+        <v>-1.16</v>
       </c>
       <c r="M18">
-        <v>12.47</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>603275</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>44.83</v>
+        <v>46.6</v>
       </c>
       <c r="E19">
-        <v>45.07</v>
+        <v>44.88</v>
       </c>
       <c r="F19">
-        <v>45.66</v>
+        <v>46.61</v>
       </c>
       <c r="G19">
-        <v>44.2</v>
+        <v>44.55</v>
       </c>
       <c r="H19">
-        <v>28341</v>
+        <v>45433</v>
       </c>
       <c r="I19">
-        <v>127111037</v>
+        <v>205946331</v>
       </c>
       <c r="J19">
-        <v>3.25</v>
+        <v>4.41</v>
       </c>
       <c r="K19">
-        <v>0.42</v>
+        <v>-3.98</v>
       </c>
       <c r="L19">
-        <v>0.19</v>
+        <v>-1.86</v>
       </c>
       <c r="M19">
-        <v>7.78</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>603275</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>44.9</v>
+        <v>44.83</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>45.07</v>
       </c>
       <c r="F20">
-        <v>46.1</v>
+        <v>45.66</v>
       </c>
       <c r="G20">
-        <v>44.53</v>
+        <v>44.2</v>
       </c>
       <c r="H20">
-        <v>33322</v>
+        <v>28341</v>
       </c>
       <c r="I20">
-        <v>152221670</v>
+        <v>127111037</v>
       </c>
       <c r="J20">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="K20">
-        <v>2.06</v>
+        <v>0.42</v>
       </c>
       <c r="L20">
-        <v>0.93</v>
+        <v>0.19</v>
       </c>
       <c r="M20">
-        <v>9.140000000000001</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>603275</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>45.61</v>
+        <v>44.9</v>
       </c>
       <c r="E21">
-        <v>46.97</v>
+        <v>46</v>
       </c>
       <c r="F21">
-        <v>47.2</v>
+        <v>46.1</v>
       </c>
       <c r="G21">
-        <v>45.17</v>
+        <v>44.53</v>
       </c>
       <c r="H21">
-        <v>44508</v>
+        <v>33322</v>
       </c>
       <c r="I21">
-        <v>205536390</v>
+        <v>152221670</v>
       </c>
       <c r="J21">
-        <v>4.41</v>
+        <v>3.48</v>
       </c>
       <c r="K21">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="L21">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="M21">
-        <v>12.21</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>603275</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>46.2</v>
+        <v>45.61</v>
       </c>
       <c r="E22">
-        <v>47.03</v>
+        <v>46.97</v>
       </c>
       <c r="F22">
-        <v>47.74</v>
+        <v>47.2</v>
       </c>
       <c r="G22">
-        <v>46.2</v>
+        <v>45.17</v>
       </c>
       <c r="H22">
-        <v>45744</v>
+        <v>44508</v>
       </c>
       <c r="I22">
-        <v>215069549</v>
+        <v>205536390</v>
       </c>
       <c r="J22">
-        <v>3.28</v>
+        <v>4.41</v>
       </c>
       <c r="K22">
-        <v>0.13</v>
+        <v>2.11</v>
       </c>
       <c r="L22">
-        <v>0.06</v>
+        <v>0.97</v>
       </c>
       <c r="M22">
-        <v>12.55</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>603275</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>47.2</v>
+        <v>46.2</v>
       </c>
       <c r="E23">
-        <v>45.9</v>
+        <v>47.03</v>
       </c>
       <c r="F23">
-        <v>47.69</v>
+        <v>47.74</v>
       </c>
       <c r="G23">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="H23">
-        <v>38995</v>
+        <v>45744</v>
       </c>
       <c r="I23">
-        <v>182338595</v>
+        <v>215069549</v>
       </c>
       <c r="J23">
-        <v>3.81</v>
+        <v>3.28</v>
       </c>
       <c r="K23">
-        <v>-2.4</v>
+        <v>0.13</v>
       </c>
       <c r="L23">
-        <v>-1.13</v>
+        <v>0.06</v>
       </c>
       <c r="M23">
-        <v>10.7</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>603275</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>44.58</v>
+        <v>47.2</v>
       </c>
       <c r="E24">
-        <v>46.14</v>
+        <v>45.9</v>
       </c>
       <c r="F24">
-        <v>46.49</v>
+        <v>47.69</v>
       </c>
       <c r="G24">
-        <v>44.58</v>
+        <v>45.9</v>
       </c>
       <c r="H24">
-        <v>38656</v>
+        <v>38995</v>
       </c>
       <c r="I24">
-        <v>176062398</v>
+        <v>182338595</v>
       </c>
       <c r="J24">
-        <v>4.16</v>
+        <v>3.81</v>
       </c>
       <c r="K24">
-        <v>0.52</v>
+        <v>-2.4</v>
       </c>
       <c r="L24">
-        <v>0.24</v>
+        <v>-1.13</v>
       </c>
       <c r="M24">
-        <v>10.61</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>603275</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>46.5</v>
+        <v>44.58</v>
       </c>
       <c r="E25">
+        <v>46.14</v>
+      </c>
+      <c r="F25">
         <v>46.49</v>
       </c>
-      <c r="F25">
-        <v>47.45</v>
-      </c>
       <c r="G25">
-        <v>46.48</v>
+        <v>44.58</v>
       </c>
       <c r="H25">
-        <v>37955</v>
+        <v>38656</v>
       </c>
       <c r="I25">
-        <v>177840039</v>
+        <v>176062398</v>
       </c>
       <c r="J25">
-        <v>2.1</v>
+        <v>4.16</v>
       </c>
       <c r="K25">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="L25">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="M25">
-        <v>10.41</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>603275</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>47.54</v>
+        <v>46.5</v>
       </c>
       <c r="E26">
-        <v>48.4</v>
+        <v>46.49</v>
       </c>
       <c r="F26">
-        <v>49.78</v>
+        <v>47.45</v>
       </c>
       <c r="G26">
-        <v>47.08</v>
+        <v>46.48</v>
       </c>
       <c r="H26">
-        <v>91120</v>
+        <v>37955</v>
       </c>
       <c r="I26">
-        <v>439527128</v>
+        <v>177840039</v>
       </c>
       <c r="J26">
-        <v>5.81</v>
+        <v>2.1</v>
       </c>
       <c r="K26">
-        <v>4.11</v>
+        <v>0.76</v>
       </c>
       <c r="L26">
-        <v>1.91</v>
+        <v>0.35</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>603275</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>47.62</v>
+        <v>47.54</v>
       </c>
       <c r="E27">
-        <v>46.72</v>
+        <v>48.4</v>
       </c>
       <c r="F27">
-        <v>48.15</v>
+        <v>49.78</v>
       </c>
       <c r="G27">
-        <v>46.72</v>
+        <v>47.08</v>
       </c>
       <c r="H27">
-        <v>60201</v>
+        <v>91120</v>
       </c>
       <c r="I27">
-        <v>285458357</v>
+        <v>439527128</v>
       </c>
       <c r="J27">
-        <v>2.95</v>
+        <v>5.81</v>
       </c>
       <c r="K27">
-        <v>-3.47</v>
+        <v>4.11</v>
       </c>
       <c r="L27">
-        <v>-1.68</v>
+        <v>1.91</v>
       </c>
       <c r="M27">
-        <v>16.52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>603275</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>47.04</v>
+        <v>47.62</v>
       </c>
       <c r="E28">
-        <v>46.28</v>
+        <v>46.72</v>
       </c>
       <c r="F28">
-        <v>47.32</v>
+        <v>48.15</v>
       </c>
       <c r="G28">
-        <v>46.12</v>
+        <v>46.72</v>
       </c>
       <c r="H28">
-        <v>35106</v>
+        <v>60201</v>
       </c>
       <c r="I28">
-        <v>163231583</v>
+        <v>285458357</v>
       </c>
       <c r="J28">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="K28">
-        <v>-0.9399999999999999</v>
+        <v>-3.47</v>
       </c>
       <c r="L28">
-        <v>-0.44</v>
+        <v>-1.68</v>
       </c>
       <c r="M28">
-        <v>9.630000000000001</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>603275</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>46.15</v>
+        <v>47.04</v>
       </c>
       <c r="E29">
-        <v>45.76</v>
+        <v>46.28</v>
       </c>
       <c r="F29">
-        <v>46.38</v>
+        <v>47.32</v>
       </c>
       <c r="G29">
-        <v>45.7</v>
+        <v>46.12</v>
       </c>
       <c r="H29">
-        <v>27067</v>
+        <v>35106</v>
       </c>
       <c r="I29">
-        <v>124437411</v>
+        <v>163231583</v>
       </c>
       <c r="J29">
-        <v>1.47</v>
+        <v>2.57</v>
       </c>
       <c r="K29">
-        <v>-1.12</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L29">
-        <v>-0.52</v>
+        <v>-0.44</v>
       </c>
       <c r="M29">
-        <v>7.43</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>603275</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>46.15</v>
       </c>
       <c r="E30">
-        <v>45.22</v>
+        <v>45.76</v>
       </c>
       <c r="F30">
-        <v>46.32</v>
+        <v>46.38</v>
       </c>
       <c r="G30">
-        <v>45.15</v>
+        <v>45.7</v>
       </c>
       <c r="H30">
-        <v>24370</v>
+        <v>27067</v>
       </c>
       <c r="I30">
-        <v>111210685</v>
+        <v>124437411</v>
       </c>
       <c r="J30">
-        <v>2.56</v>
+        <v>1.47</v>
       </c>
       <c r="K30">
-        <v>-1.18</v>
+        <v>-1.12</v>
       </c>
       <c r="L30">
-        <v>-0.54</v>
+        <v>-0.52</v>
       </c>
       <c r="M30">
-        <v>6.69</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>603275</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>45.23</v>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>45.55</v>
+        <v>45.22</v>
       </c>
       <c r="F31">
-        <v>45.78</v>
+        <v>46.32</v>
       </c>
       <c r="G31">
-        <v>44.56</v>
+        <v>45.15</v>
       </c>
       <c r="H31">
-        <v>24520</v>
+        <v>24370</v>
       </c>
       <c r="I31">
-        <v>110867334</v>
+        <v>111210685</v>
       </c>
       <c r="J31">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="K31">
-        <v>0.73</v>
+        <v>-1.18</v>
       </c>
       <c r="L31">
-        <v>0.33</v>
+        <v>-0.54</v>
       </c>
       <c r="M31">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>603275</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>45.58</v>
+        <v>45.23</v>
       </c>
       <c r="E32">
-        <v>45.32</v>
+        <v>45.55</v>
       </c>
       <c r="F32">
-        <v>45.69</v>
+        <v>45.78</v>
       </c>
       <c r="G32">
-        <v>45.06</v>
+        <v>44.56</v>
       </c>
       <c r="H32">
-        <v>18742</v>
+        <v>24520</v>
       </c>
       <c r="I32">
-        <v>84926969</v>
+        <v>110867334</v>
       </c>
       <c r="J32">
-        <v>1.38</v>
+        <v>2.7</v>
       </c>
       <c r="K32">
-        <v>-0.5</v>
+        <v>0.73</v>
       </c>
       <c r="L32">
-        <v>-0.23</v>
+        <v>0.33</v>
       </c>
       <c r="M32">
-        <v>5.14</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>603275</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>45.03</v>
+        <v>45.58</v>
       </c>
       <c r="E33">
-        <v>44.05</v>
+        <v>45.32</v>
       </c>
       <c r="F33">
-        <v>45.08</v>
+        <v>45.69</v>
       </c>
       <c r="G33">
-        <v>43.67</v>
+        <v>45.06</v>
       </c>
       <c r="H33">
-        <v>40629</v>
+        <v>18742</v>
       </c>
       <c r="I33">
-        <v>179877467</v>
+        <v>84926969</v>
       </c>
       <c r="J33">
-        <v>3.11</v>
+        <v>1.38</v>
       </c>
       <c r="K33">
-        <v>-2.8</v>
+        <v>-0.5</v>
       </c>
       <c r="L33">
-        <v>-1.27</v>
+        <v>-0.23</v>
       </c>
       <c r="M33">
-        <v>11.15</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>603275</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>44.44</v>
+        <v>45.03</v>
       </c>
       <c r="E34">
-        <v>43.65</v>
+        <v>44.05</v>
       </c>
       <c r="F34">
-        <v>44.65</v>
+        <v>45.08</v>
       </c>
       <c r="G34">
-        <v>43.55</v>
+        <v>43.67</v>
       </c>
       <c r="H34">
-        <v>21234</v>
+        <v>40629</v>
       </c>
       <c r="I34">
-        <v>93364463</v>
+        <v>179877467</v>
       </c>
       <c r="J34">
-        <v>2.5</v>
+        <v>3.11</v>
       </c>
       <c r="K34">
-        <v>-0.91</v>
+        <v>-2.8</v>
       </c>
       <c r="L34">
-        <v>-0.4</v>
+        <v>-1.27</v>
       </c>
       <c r="M34">
-        <v>5.83</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>603275</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>43.66</v>
+        <v>44.44</v>
       </c>
       <c r="E35">
-        <v>42.92</v>
+        <v>43.65</v>
       </c>
       <c r="F35">
-        <v>43.69</v>
+        <v>44.65</v>
       </c>
       <c r="G35">
-        <v>42.88</v>
+        <v>43.55</v>
       </c>
       <c r="H35">
-        <v>18688</v>
+        <v>21234</v>
       </c>
       <c r="I35">
-        <v>80555109</v>
+        <v>93364463</v>
       </c>
       <c r="J35">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="K35">
-        <v>-1.67</v>
+        <v>-0.91</v>
       </c>
       <c r="L35">
-        <v>-0.73</v>
+        <v>-0.4</v>
       </c>
       <c r="M35">
-        <v>5.13</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>603275</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>42.8</v>
+        <v>43.66</v>
       </c>
       <c r="E36">
-        <v>40.82</v>
+        <v>42.92</v>
       </c>
       <c r="F36">
-        <v>42.8</v>
+        <v>43.69</v>
       </c>
       <c r="G36">
-        <v>40.76</v>
+        <v>42.88</v>
       </c>
       <c r="H36">
-        <v>26905</v>
+        <v>18688</v>
       </c>
       <c r="I36">
-        <v>111086268</v>
+        <v>80555109</v>
       </c>
       <c r="J36">
-        <v>4.75</v>
+        <v>1.86</v>
       </c>
       <c r="K36">
-        <v>-4.89</v>
+        <v>-1.67</v>
       </c>
       <c r="L36">
-        <v>-2.1</v>
+        <v>-0.73</v>
       </c>
       <c r="M36">
-        <v>7.38</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>603275</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>40.61</v>
+        <v>42.8</v>
       </c>
       <c r="E37">
-        <v>40.8</v>
+        <v>40.82</v>
       </c>
       <c r="F37">
-        <v>41.64</v>
+        <v>42.8</v>
       </c>
       <c r="G37">
-        <v>40.26</v>
+        <v>40.76</v>
       </c>
       <c r="H37">
-        <v>22969</v>
+        <v>26905</v>
       </c>
       <c r="I37">
-        <v>94456309</v>
+        <v>111086268</v>
       </c>
       <c r="J37">
-        <v>3.38</v>
+        <v>4.75</v>
       </c>
       <c r="K37">
-        <v>-0.05</v>
+        <v>-4.89</v>
       </c>
       <c r="L37">
-        <v>-0.02</v>
+        <v>-2.1</v>
       </c>
       <c r="M37">
-        <v>6.3</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>603275</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>40.63</v>
+        <v>40.61</v>
       </c>
       <c r="E38">
-        <v>40.85</v>
+        <v>40.8</v>
       </c>
       <c r="F38">
-        <v>41.85</v>
+        <v>41.64</v>
       </c>
       <c r="G38">
-        <v>40.57</v>
+        <v>40.26</v>
       </c>
       <c r="H38">
-        <v>18821</v>
+        <v>22969</v>
       </c>
       <c r="I38">
-        <v>77282527</v>
+        <v>94456309</v>
       </c>
       <c r="J38">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="K38">
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="L38">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="M38">
-        <v>5.16</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>603275</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>40.76</v>
+        <v>40.63</v>
       </c>
       <c r="E39">
-        <v>38.52</v>
+        <v>40.85</v>
       </c>
       <c r="F39">
-        <v>40.76</v>
+        <v>41.85</v>
       </c>
       <c r="G39">
-        <v>38.41</v>
+        <v>40.57</v>
       </c>
       <c r="H39">
-        <v>26042</v>
+        <v>18821</v>
       </c>
       <c r="I39">
-        <v>101354570</v>
+        <v>77282527</v>
       </c>
       <c r="J39">
-        <v>5.75</v>
+        <v>3.14</v>
       </c>
       <c r="K39">
-        <v>-5.7</v>
+        <v>0.12</v>
       </c>
       <c r="L39">
-        <v>-2.33</v>
+        <v>0.05</v>
       </c>
       <c r="M39">
-        <v>7.15</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>603275</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>38.61</v>
+        <v>40.76</v>
       </c>
       <c r="E40">
-        <v>39.8</v>
+        <v>38.52</v>
       </c>
       <c r="F40">
-        <v>39.83</v>
+        <v>40.76</v>
       </c>
       <c r="G40">
-        <v>38.53</v>
+        <v>38.41</v>
       </c>
       <c r="H40">
-        <v>23564</v>
+        <v>26042</v>
       </c>
       <c r="I40">
-        <v>92531465</v>
+        <v>101354570</v>
       </c>
       <c r="J40">
-        <v>3.37</v>
+        <v>5.75</v>
       </c>
       <c r="K40">
-        <v>3.32</v>
+        <v>-5.7</v>
       </c>
       <c r="L40">
-        <v>1.28</v>
+        <v>-2.33</v>
       </c>
       <c r="M40">
-        <v>6.47</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>603275</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>39.71</v>
+        <v>38.61</v>
       </c>
       <c r="E41">
-        <v>41.79</v>
+        <v>39.8</v>
       </c>
       <c r="F41">
-        <v>42.43</v>
+        <v>39.83</v>
       </c>
       <c r="G41">
-        <v>39.62</v>
+        <v>38.53</v>
       </c>
       <c r="H41">
-        <v>35923</v>
+        <v>23564</v>
       </c>
       <c r="I41">
-        <v>147132794</v>
+        <v>92531465</v>
       </c>
       <c r="J41">
-        <v>7.06</v>
+        <v>3.37</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>3.32</v>
       </c>
       <c r="L41">
-        <v>1.99</v>
+        <v>1.28</v>
       </c>
       <c r="M41">
-        <v>9.859999999999999</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>603275</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>41.3</v>
+        <v>39.71</v>
       </c>
       <c r="E42">
+        <v>41.79</v>
+      </c>
+      <c r="F42">
         <v>42.43</v>
       </c>
-      <c r="F42">
-        <v>42.5</v>
-      </c>
       <c r="G42">
-        <v>41.03</v>
+        <v>39.62</v>
       </c>
       <c r="H42">
-        <v>27072</v>
+        <v>35923</v>
       </c>
       <c r="I42">
-        <v>113487000</v>
+        <v>147132794</v>
       </c>
       <c r="J42">
-        <v>3.52</v>
+        <v>7.06</v>
       </c>
       <c r="K42">
-        <v>1.53</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>0.64</v>
+        <v>1.99</v>
       </c>
       <c r="M42">
-        <v>7.43</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>603275</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>41.91</v>
+        <v>41.3</v>
       </c>
       <c r="E43">
-        <v>42.7</v>
+        <v>42.43</v>
       </c>
       <c r="F43">
-        <v>43.15</v>
+        <v>42.5</v>
       </c>
       <c r="G43">
-        <v>41.33</v>
+        <v>41.03</v>
       </c>
       <c r="H43">
-        <v>32040</v>
+        <v>27072</v>
       </c>
       <c r="I43">
-        <v>136255714</v>
+        <v>113487000</v>
       </c>
       <c r="J43">
-        <v>4.29</v>
+        <v>3.52</v>
       </c>
       <c r="K43">
+        <v>1.53</v>
+      </c>
+      <c r="L43">
         <v>0.64</v>
       </c>
-      <c r="L43">
-        <v>0.27</v>
-      </c>
       <c r="M43">
-        <v>8.789999999999999</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>603275</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>42.13</v>
+        <v>41.91</v>
       </c>
       <c r="E44">
-        <v>42.63</v>
+        <v>42.7</v>
       </c>
       <c r="F44">
-        <v>43.13</v>
+        <v>43.15</v>
       </c>
       <c r="G44">
-        <v>42.05</v>
+        <v>41.33</v>
       </c>
       <c r="H44">
-        <v>24257</v>
+        <v>32040</v>
       </c>
       <c r="I44">
-        <v>103148936</v>
+        <v>136255714</v>
       </c>
       <c r="J44">
-        <v>2.53</v>
+        <v>4.29</v>
       </c>
       <c r="K44">
-        <v>-0.16</v>
+        <v>0.64</v>
       </c>
       <c r="L44">
-        <v>-0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="M44">
-        <v>6.66</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>603275</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>42.56</v>
+        <v>42.13</v>
       </c>
       <c r="E45">
-        <v>42</v>
+        <v>42.63</v>
       </c>
       <c r="F45">
-        <v>42.63</v>
+        <v>43.13</v>
       </c>
       <c r="G45">
-        <v>41.7</v>
+        <v>42.05</v>
       </c>
       <c r="H45">
-        <v>17506</v>
+        <v>24257</v>
       </c>
       <c r="I45">
-        <v>73715833</v>
+        <v>103148936</v>
       </c>
       <c r="J45">
-        <v>2.18</v>
+        <v>2.53</v>
       </c>
       <c r="K45">
-        <v>-1.48</v>
+        <v>-0.16</v>
       </c>
       <c r="L45">
-        <v>-0.63</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M45">
-        <v>4.8</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>603275</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>42.01</v>
+        <v>42.56</v>
       </c>
       <c r="E46">
-        <v>42.49</v>
+        <v>42</v>
       </c>
       <c r="F46">
-        <v>42.9</v>
+        <v>42.63</v>
       </c>
       <c r="G46">
-        <v>41.86</v>
+        <v>41.7</v>
       </c>
       <c r="H46">
-        <v>15599</v>
+        <v>17506</v>
       </c>
       <c r="I46">
-        <v>66140215</v>
+        <v>73715833</v>
       </c>
       <c r="J46">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="K46">
-        <v>1.17</v>
+        <v>-1.48</v>
       </c>
       <c r="L46">
-        <v>0.49</v>
+        <v>-0.63</v>
       </c>
       <c r="M46">
-        <v>4.28</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>603275</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>42.37</v>
+        <v>42.01</v>
       </c>
       <c r="E47">
-        <v>41.53</v>
+        <v>42.49</v>
       </c>
       <c r="F47">
-        <v>42.75</v>
+        <v>42.9</v>
       </c>
       <c r="G47">
-        <v>41.53</v>
+        <v>41.86</v>
       </c>
       <c r="H47">
-        <v>14770</v>
+        <v>15599</v>
       </c>
       <c r="I47">
-        <v>62089885</v>
+        <v>66140215</v>
       </c>
       <c r="J47">
-        <v>2.87</v>
+        <v>2.48</v>
       </c>
       <c r="K47">
-        <v>-2.26</v>
+        <v>1.17</v>
       </c>
       <c r="L47">
-        <v>-0.96</v>
+        <v>0.49</v>
       </c>
       <c r="M47">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>603275</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
+        <v>42.37</v>
+      </c>
+      <c r="E48">
+        <v>41.53</v>
+      </c>
+      <c r="F48">
+        <v>42.75</v>
+      </c>
+      <c r="G48">
+        <v>41.53</v>
+      </c>
+      <c r="H48">
+        <v>14770</v>
+      </c>
+      <c r="I48">
+        <v>62089885</v>
+      </c>
+      <c r="J48">
+        <v>2.87</v>
+      </c>
+      <c r="K48">
+        <v>-2.26</v>
+      </c>
+      <c r="L48">
+        <v>-0.96</v>
+      </c>
+      <c r="M48">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>603275</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49">
         <v>42.25</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>43.17</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>44.38</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>42.2</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>37738</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>164565858</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>5.25</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>3.95</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>1.64</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>10.35</v>
       </c>
     </row>
